--- a/2_output.xlsx
+++ b/2_output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="449">
   <si>
     <t>code</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>factor_y</t>
+  </si>
+  <si>
+    <t>increase_ratio</t>
   </si>
   <si>
     <t>601555</t>
@@ -1715,13 +1718,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S216"/>
+  <dimension ref="A1:T216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1776,16 +1779,19 @@
       <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D2">
         <v>2.4334</v>
@@ -1835,16 +1841,19 @@
       <c r="S2">
         <v>6.917899999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="T2">
+        <v>-0.5817612587300314</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D3">
         <v>2.4797</v>
@@ -1894,16 +1903,19 @@
       <c r="S3">
         <v>4.1333</v>
       </c>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="T3">
+        <v>2.198045048873778</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D4">
         <v>2.4797</v>
@@ -1953,16 +1965,19 @@
       <c r="S4">
         <v>5.029</v>
       </c>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="T4">
+        <v>-0.5801594331266607</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D5">
         <v>1.5718</v>
@@ -2012,16 +2027,19 @@
       <c r="S5">
         <v>6.644400000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="T5">
+        <v>-0.2170895684233355</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D6">
         <v>2.2949</v>
@@ -2071,16 +2089,19 @@
       <c r="S6">
         <v>4.062900000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="T6">
+        <v>-0.4869361675207187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D7">
         <v>2.4797</v>
@@ -2130,16 +2151,19 @@
       <c r="S7">
         <v>14.3191</v>
       </c>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="T7">
+        <v>-0.5866721811508039</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D8">
         <v>1.5572</v>
@@ -2189,16 +2213,19 @@
       <c r="S8">
         <v>5.3673</v>
       </c>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="T8">
+        <v>-0.5670053217223028</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D9">
         <v>2.3221</v>
@@ -2248,16 +2275,19 @@
       <c r="S9">
         <v>13.0369</v>
       </c>
-    </row>
-    <row r="10" spans="1:19">
+      <c r="T9">
+        <v>-0.5270669444358074</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D10">
         <v>2.4797</v>
@@ -2307,16 +2337,19 @@
       <c r="S10">
         <v>16.1159</v>
       </c>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="T10">
+        <v>0.1488377098579424</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D11">
         <v>2.4797</v>
@@ -2366,16 +2399,19 @@
       <c r="S11">
         <v>16.7113</v>
       </c>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="T11">
+        <v>-0.6883410018230749</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D12">
         <v>1.996</v>
@@ -2425,16 +2461,19 @@
       <c r="S12">
         <v>5.5643</v>
       </c>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="T12">
+        <v>-0.4001395024412927</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D13">
         <v>1.8744</v>
@@ -2484,16 +2523,19 @@
       <c r="S13">
         <v>5.6626</v>
       </c>
-    </row>
-    <row r="14" spans="1:19">
+      <c r="T13">
+        <v>-0.5788021425093328</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D14">
         <v>2.4797</v>
@@ -2543,16 +2585,19 @@
       <c r="S14">
         <v>17.1721</v>
       </c>
-    </row>
-    <row r="15" spans="1:19">
+      <c r="T14">
+        <v>-0.4125100468062975</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D15">
         <v>1.4414</v>
@@ -2602,16 +2647,19 @@
       <c r="S15">
         <v>11.5934</v>
       </c>
-    </row>
-    <row r="16" spans="1:19">
+      <c r="T15">
+        <v>-0.4685416856908045</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D16">
         <v>2.4207</v>
@@ -2661,16 +2709,19 @@
       <c r="S16">
         <v>7.9812</v>
       </c>
-    </row>
-    <row r="17" spans="1:19">
+      <c r="T16">
+        <v>-0.5078307703210262</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D17">
         <v>2.4797</v>
@@ -2720,16 +2771,19 @@
       <c r="S17">
         <v>15.3516</v>
       </c>
-    </row>
-    <row r="18" spans="1:19">
+      <c r="T17">
+        <v>0.7023060796645701</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D18">
         <v>2.4797</v>
@@ -2779,16 +2833,19 @@
       <c r="S18">
         <v>3.5063</v>
       </c>
-    </row>
-    <row r="19" spans="1:19">
+      <c r="T18">
+        <v>-0.3925095841934532</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D19">
         <v>2.4797</v>
@@ -2838,16 +2895,19 @@
       <c r="S19">
         <v>16.0611</v>
       </c>
-    </row>
-    <row r="20" spans="1:19">
+      <c r="T19">
+        <v>-0.6227078623461442</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D20">
         <v>2.3545</v>
@@ -2897,16 +2957,19 @@
       <c r="S20">
         <v>10.6777</v>
       </c>
-    </row>
-    <row r="21" spans="1:19">
+      <c r="T20">
+        <v>0.5201995012468827</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D21">
         <v>2.4797</v>
@@ -2956,16 +3019,19 @@
       <c r="S21">
         <v>13.7002</v>
       </c>
-    </row>
-    <row r="22" spans="1:19">
+      <c r="T21">
+        <v>-0.3373321908026278</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D22">
         <v>2.0773</v>
@@ -3015,16 +3081,19 @@
       <c r="S22">
         <v>5.5336</v>
       </c>
-    </row>
-    <row r="23" spans="1:19">
+      <c r="T22">
+        <v>-0.4798423764777205</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D23">
         <v>2.4797</v>
@@ -3074,16 +3143,19 @@
       <c r="S23">
         <v>3.177300000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:19">
+      <c r="T23">
+        <v>2.56392467789891</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D24">
         <v>0.6685</v>
@@ -3133,16 +3205,19 @@
       <c r="S24">
         <v>7.9585</v>
       </c>
-    </row>
-    <row r="25" spans="1:19">
+      <c r="T24">
+        <v>1.152644996813257</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D25">
         <v>2.4797</v>
@@ -3192,16 +3267,19 @@
       <c r="S25">
         <v>3.0301</v>
       </c>
-    </row>
-    <row r="26" spans="1:19">
+      <c r="T25">
+        <v>0.1802552473367788</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D26">
         <v>2.4797</v>
@@ -3251,16 +3329,19 @@
       <c r="S26">
         <v>7.8651</v>
       </c>
-    </row>
-    <row r="27" spans="1:19">
+      <c r="T26">
+        <v>-0.363746518994069</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C27" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D27">
         <v>2.3151</v>
@@ -3310,16 +3391,19 @@
       <c r="S27">
         <v>5.0628</v>
       </c>
-    </row>
-    <row r="28" spans="1:19">
+      <c r="T27">
+        <v>-0.7931024261556474</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C28" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D28">
         <v>1.5613</v>
@@ -3369,16 +3453,19 @@
       <c r="S28">
         <v>7.5099</v>
       </c>
-    </row>
-    <row r="29" spans="1:19">
+      <c r="T28">
+        <v>-0.15389369592089</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C29" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D29">
         <v>2.4797</v>
@@ -3428,16 +3515,19 @@
       <c r="S29">
         <v>13.7383</v>
       </c>
-    </row>
-    <row r="30" spans="1:19">
+      <c r="T29">
+        <v>0.7092629200790738</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C30" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D30">
         <v>1.6061</v>
@@ -3487,16 +3577,19 @@
       <c r="S30">
         <v>5.4213</v>
       </c>
-    </row>
-    <row r="31" spans="1:19">
+      <c r="T30">
+        <v>-0.4639099132361086</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C31" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D31">
         <v>1.6333</v>
@@ -3546,16 +3639,19 @@
       <c r="S31">
         <v>4.791</v>
       </c>
-    </row>
-    <row r="32" spans="1:19">
+      <c r="T31">
+        <v>-0.2900507991574773</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C32" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D32">
         <v>2.3235</v>
@@ -3605,16 +3701,19 @@
       <c r="S32">
         <v>5.27</v>
       </c>
-    </row>
-    <row r="33" spans="1:19">
+      <c r="T32">
+        <v>-0.4766554775709491</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C33" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D33">
         <v>1.2503</v>
@@ -3664,16 +3763,19 @@
       <c r="S33">
         <v>15.7105</v>
       </c>
-    </row>
-    <row r="34" spans="1:19">
+      <c r="T33">
+        <v>-0.1331207652451176</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C34" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D34">
         <v>2.4797</v>
@@ -3723,16 +3825,19 @@
       <c r="S34">
         <v>15.3159</v>
       </c>
-    </row>
-    <row r="35" spans="1:19">
+      <c r="T34">
+        <v>-0.6183442793922823</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C35" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D35">
         <v>2.0359</v>
@@ -3782,16 +3887,19 @@
       <c r="S35">
         <v>11.3133</v>
       </c>
-    </row>
-    <row r="36" spans="1:19">
+      <c r="T35">
+        <v>-0.3906791760146849</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C36" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D36">
         <v>0.8807</v>
@@ -3841,16 +3949,19 @@
       <c r="S36">
         <v>13.7559</v>
       </c>
-    </row>
-    <row r="37" spans="1:19">
+      <c r="T36">
+        <v>-0.3972012917115178</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C37" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D37">
         <v>1.5705</v>
@@ -3900,16 +4011,19 @@
       <c r="S37">
         <v>12.8798</v>
       </c>
-    </row>
-    <row r="38" spans="1:19">
+      <c r="T37">
+        <v>0.5717809570794278</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C38" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D38">
         <v>2.2148</v>
@@ -3959,16 +4073,19 @@
       <c r="S38">
         <v>7.927399999999999</v>
       </c>
-    </row>
-    <row r="39" spans="1:19">
+      <c r="T38">
+        <v>-0.4980607749369281</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C39" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D39">
         <v>1.2912</v>
@@ -4018,16 +4135,19 @@
       <c r="S39">
         <v>12.811</v>
       </c>
-    </row>
-    <row r="40" spans="1:19">
+      <c r="T39">
+        <v>-0.1042060326124991</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C40" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D40">
         <v>2.4797</v>
@@ -4077,16 +4197,19 @@
       <c r="S40">
         <v>3.9592</v>
       </c>
-    </row>
-    <row r="41" spans="1:19">
+      <c r="T40">
+        <v>-0.2934984061086812</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C41" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D41">
         <v>1.7433</v>
@@ -4136,16 +4259,19 @@
       <c r="S41">
         <v>9.100899999999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:19">
+      <c r="T41">
+        <v>0.08962717658369818</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C42" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D42">
         <v>1.1131</v>
@@ -4195,16 +4321,19 @@
       <c r="S42">
         <v>4.116300000000001</v>
       </c>
-    </row>
-    <row r="43" spans="1:19">
+      <c r="T42">
+        <v>-0.1393135892227092</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C43" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D43">
         <v>2.4797</v>
@@ -4254,16 +4383,19 @@
       <c r="S43">
         <v>15.1877</v>
       </c>
-    </row>
-    <row r="44" spans="1:19">
+      <c r="T43">
+        <v>0.02750454232190955</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C44" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D44">
         <v>0.9137</v>
@@ -4313,16 +4445,19 @@
       <c r="S44">
         <v>11.0081</v>
       </c>
-    </row>
-    <row r="45" spans="1:19">
+      <c r="T44">
+        <v>-0.02934537246049663</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C45" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D45">
         <v>2.4245</v>
@@ -4372,16 +4507,19 @@
       <c r="S45">
         <v>6.3132</v>
       </c>
-    </row>
-    <row r="46" spans="1:19">
+      <c r="T45">
+        <v>-0.5699908508691673</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C46" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D46">
         <v>2.4797</v>
@@ -4431,16 +4569,19 @@
       <c r="S46">
         <v>7.2535</v>
       </c>
-    </row>
-    <row r="47" spans="1:19">
+      <c r="T46">
+        <v>-0.6376065442480408</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C47" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D47">
         <v>2.4797</v>
@@ -4490,16 +4631,19 @@
       <c r="S47">
         <v>7.8573</v>
       </c>
-    </row>
-    <row r="48" spans="1:19">
+      <c r="T47">
+        <v>-0.02296328799180928</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C48" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D48">
         <v>0.164</v>
@@ -4549,16 +4693,19 @@
       <c r="S48">
         <v>10.1916</v>
       </c>
-    </row>
-    <row r="49" spans="1:19">
+      <c r="T48">
+        <v>-0.4340752570116778</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C49" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D49">
         <v>1.2914</v>
@@ -4608,16 +4755,19 @@
       <c r="S49">
         <v>11.4975</v>
       </c>
-    </row>
-    <row r="50" spans="1:19">
+      <c r="T49">
+        <v>-0.2376382780221245</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C50" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D50">
         <v>2.4797</v>
@@ -4667,16 +4817,19 @@
       <c r="S50">
         <v>7.436300000000001</v>
       </c>
-    </row>
-    <row r="51" spans="1:19">
+      <c r="T50">
+        <v>-0.6749726177437022</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C51" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D51">
         <v>1.0437</v>
@@ -4726,16 +4879,19 @@
       <c r="S51">
         <v>4.299200000000001</v>
       </c>
-    </row>
-    <row r="52" spans="1:19">
+      <c r="T51">
+        <v>-0.2791099751935654</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C52" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D52">
         <v>0.6635</v>
@@ -4785,16 +4941,19 @@
       <c r="S52">
         <v>14.9024</v>
       </c>
-    </row>
-    <row r="53" spans="1:19">
+      <c r="T52">
+        <v>-0.07132564841498561</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C53" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D53">
         <v>1.1762</v>
@@ -4844,16 +5003,19 @@
       <c r="S53">
         <v>8.575500000000002</v>
       </c>
-    </row>
-    <row r="54" spans="1:19">
+      <c r="T53">
+        <v>0.1885842193620592</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C54" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D54">
         <v>2.4797</v>
@@ -4903,16 +5065,19 @@
       <c r="S54">
         <v>11.1642</v>
       </c>
-    </row>
-    <row r="55" spans="1:19">
+      <c r="T54">
+        <v>-0.2701304543409806</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C55" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D55">
         <v>2.4336</v>
@@ -4962,16 +5127,19 @@
       <c r="S55">
         <v>4.1145</v>
       </c>
-    </row>
-    <row r="56" spans="1:19">
+      <c r="T55">
+        <v>-0.1651865008880996</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C56" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D56">
         <v>2.4797</v>
@@ -5021,16 +5189,19 @@
       <c r="S56">
         <v>4.277400000000001</v>
       </c>
-    </row>
-    <row r="57" spans="1:19">
+      <c r="T56">
+        <v>-0.447591303878729</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C57" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D57">
         <v>0.6349</v>
@@ -5080,16 +5251,19 @@
       <c r="S57">
         <v>15.1334</v>
       </c>
-    </row>
-    <row r="58" spans="1:19">
+      <c r="T57">
+        <v>-0.45133978696932</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C58" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D58">
         <v>2.4797</v>
@@ -5139,16 +5313,19 @@
       <c r="S58">
         <v>11.0192</v>
       </c>
-    </row>
-    <row r="59" spans="1:19">
+      <c r="T58">
+        <v>-0.4145182701041011</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C59" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D59">
         <v>1.7882</v>
@@ -5198,16 +5375,19 @@
       <c r="S59">
         <v>5.1365</v>
       </c>
-    </row>
-    <row r="60" spans="1:19">
+      <c r="T59">
+        <v>-0.552498189717596</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C60" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D60">
         <v>2.4797</v>
@@ -5257,16 +5437,19 @@
       <c r="S60">
         <v>8.6656</v>
       </c>
-    </row>
-    <row r="61" spans="1:19">
+      <c r="T60">
+        <v>0.1209046784414185</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C61" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D61">
         <v>1.6981</v>
@@ -5316,16 +5499,19 @@
       <c r="S61">
         <v>5.1159</v>
       </c>
-    </row>
-    <row r="62" spans="1:19">
+      <c r="T61">
+        <v>0.9893311448502254</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C62" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D62">
         <v>2.0586</v>
@@ -5375,16 +5561,19 @@
       <c r="S62">
         <v>3.2942</v>
       </c>
-    </row>
-    <row r="63" spans="1:19">
+      <c r="T62">
+        <v>-0.5618732907930719</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C63" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D63">
         <v>2.4797</v>
@@ -5434,16 +5623,19 @@
       <c r="S63">
         <v>7.0113</v>
       </c>
-    </row>
-    <row r="64" spans="1:19">
+      <c r="T63">
+        <v>-0.5744099152465142</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C64" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D64">
         <v>-0.3955</v>
@@ -5493,16 +5685,19 @@
       <c r="S64">
         <v>7.3384</v>
       </c>
-    </row>
-    <row r="65" spans="1:19">
+      <c r="T64">
+        <v>-0.714331748972851</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C65" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D65">
         <v>2.0851</v>
@@ -5552,16 +5747,19 @@
       <c r="S65">
         <v>5.9075</v>
       </c>
-    </row>
-    <row r="66" spans="1:19">
+      <c r="T65">
+        <v>-0.4028957759961708</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C66" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D66">
         <v>1.3972</v>
@@ -5611,16 +5809,19 @@
       <c r="S66">
         <v>8.596500000000001</v>
       </c>
-    </row>
-    <row r="67" spans="1:19">
+      <c r="T66">
+        <v>-0.5716607706281671</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C67" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D67">
         <v>1.6087</v>
@@ -5670,16 +5871,19 @@
       <c r="S67">
         <v>8.0237</v>
       </c>
-    </row>
-    <row r="68" spans="1:19">
+      <c r="T67">
+        <v>-0.4994143708305749</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C68" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D68">
         <v>2.4797</v>
@@ -5729,16 +5933,19 @@
       <c r="S68">
         <v>3.4478</v>
       </c>
-    </row>
-    <row r="69" spans="1:19">
+      <c r="T68">
+        <v>0.3562208184564682</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C69" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D69">
         <v>2.4797</v>
@@ -5788,16 +5995,19 @@
       <c r="S69">
         <v>11.8507</v>
       </c>
-    </row>
-    <row r="70" spans="1:19">
+      <c r="T69">
+        <v>-0.43491528990845</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C70" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D70">
         <v>0.3072</v>
@@ -5847,16 +6057,19 @@
       <c r="S70">
         <v>2.8738</v>
       </c>
-    </row>
-    <row r="71" spans="1:19">
+      <c r="T70">
+        <v>1.922101061934288</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C71" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D71">
         <v>0.8438</v>
@@ -5906,16 +6119,19 @@
       <c r="S71">
         <v>13.5462</v>
       </c>
-    </row>
-    <row r="72" spans="1:19">
+      <c r="T71">
+        <v>-0.3930013458950202</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C72" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D72">
         <v>0.3385</v>
@@ -5965,16 +6181,19 @@
       <c r="S72">
         <v>11.5651</v>
       </c>
-    </row>
-    <row r="73" spans="1:19">
+      <c r="T72">
+        <v>1.476484904295205</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C73" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D73">
         <v>1.3955</v>
@@ -6024,16 +6243,19 @@
       <c r="S73">
         <v>5.386100000000001</v>
       </c>
-    </row>
-    <row r="74" spans="1:19">
+      <c r="T73">
+        <v>-0.4934239857333927</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C74" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D74">
         <v>2.1251</v>
@@ -6083,16 +6305,19 @@
       <c r="S74">
         <v>4.9169</v>
       </c>
-    </row>
-    <row r="75" spans="1:19">
+      <c r="T74">
+        <v>1.148979838222866</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C75" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D75">
         <v>-0.2332</v>
@@ -6142,16 +6367,19 @@
       <c r="S75">
         <v>10.0744</v>
       </c>
-    </row>
-    <row r="76" spans="1:19">
+      <c r="T75">
+        <v>-0.3452088452088453</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C76" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D76">
         <v>1.9146</v>
@@ -6201,16 +6429,19 @@
       <c r="S76">
         <v>5.369</v>
       </c>
-    </row>
-    <row r="77" spans="1:19">
+      <c r="T76">
+        <v>-0.09154929577464782</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C77" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D77">
         <v>2.4797</v>
@@ -6260,16 +6491,19 @@
       <c r="S77">
         <v>4.6717</v>
       </c>
-    </row>
-    <row r="78" spans="1:19">
+      <c r="T77">
+        <v>-0.004509582863585023</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C78" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D78">
         <v>2.4797</v>
@@ -6319,16 +6553,19 @@
       <c r="S78">
         <v>4.992999999999999</v>
       </c>
-    </row>
-    <row r="79" spans="1:19">
+      <c r="T78">
+        <v>-0.6290708450977434</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C79" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D79">
         <v>1.2355</v>
@@ -6378,16 +6615,19 @@
       <c r="S79">
         <v>5.998200000000001</v>
       </c>
-    </row>
-    <row r="80" spans="1:19">
+      <c r="T79">
+        <v>-0.3981481481481482</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C80" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D80">
         <v>0.9288999999999999</v>
@@ -6437,16 +6677,19 @@
       <c r="S80">
         <v>6.1027</v>
       </c>
-    </row>
-    <row r="81" spans="1:19">
+      <c r="T80">
+        <v>-0.2810411036836866</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C81" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D81">
         <v>-0.5097</v>
@@ -6496,16 +6739,19 @@
       <c r="S81">
         <v>10.9185</v>
       </c>
-    </row>
-    <row r="82" spans="1:19">
+      <c r="T81">
+        <v>-0.6096879932014083</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C82" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D82">
         <v>-0.1607</v>
@@ -6555,16 +6801,19 @@
       <c r="S82">
         <v>11.2667</v>
       </c>
-    </row>
-    <row r="83" spans="1:19">
+      <c r="T82">
+        <v>0.1368597816960536</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C83" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D83">
         <v>1.5271</v>
@@ -6614,16 +6863,19 @@
       <c r="S83">
         <v>4.786499999999999</v>
       </c>
-    </row>
-    <row r="84" spans="1:19">
+      <c r="T83">
+        <v>0.6474150499046765</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C84" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D84">
         <v>2.4797</v>
@@ -6673,16 +6925,19 @@
       <c r="S84">
         <v>5.9233</v>
       </c>
-    </row>
-    <row r="85" spans="1:19">
+      <c r="T84">
+        <v>-0.329798515376458</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C85" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D85">
         <v>2.4797</v>
@@ -6732,16 +6987,19 @@
       <c r="S85">
         <v>4.9627</v>
       </c>
-    </row>
-    <row r="86" spans="1:19">
+      <c r="T85">
+        <v>0.08542959817053246</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C86" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D86">
         <v>1.199</v>
@@ -6791,16 +7049,19 @@
       <c r="S86">
         <v>3.0851</v>
       </c>
-    </row>
-    <row r="87" spans="1:19">
+      <c r="T86">
+        <v>-0.2770519262981576</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C87" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D87">
         <v>0.5405</v>
@@ -6850,16 +7111,19 @@
       <c r="S87">
         <v>7.554400000000001</v>
       </c>
-    </row>
-    <row r="88" spans="1:19">
+      <c r="T87">
+        <v>-0.3731911652703732</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C88" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D88">
         <v>2.4797</v>
@@ -6909,16 +7173,19 @@
       <c r="S88">
         <v>7.6267</v>
       </c>
-    </row>
-    <row r="89" spans="1:19">
+      <c r="T88">
+        <v>-0.5095238095238095</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C89" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D89">
         <v>0.0507</v>
@@ -6968,16 +7235,19 @@
       <c r="S89">
         <v>14.4746</v>
       </c>
-    </row>
-    <row r="90" spans="1:19">
+      <c r="T89">
+        <v>-0.4943549165299623</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C90" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D90">
         <v>-0.7534</v>
@@ -7027,16 +7297,19 @@
       <c r="S90">
         <v>3.021800000000001</v>
       </c>
-    </row>
-    <row r="91" spans="1:19">
+      <c r="T90">
+        <v>-0.1474953617810761</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C91" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D91">
         <v>1.9696</v>
@@ -7086,16 +7359,19 @@
       <c r="S91">
         <v>6.398099999999999</v>
       </c>
-    </row>
-    <row r="92" spans="1:19">
+      <c r="T91">
+        <v>-0.1185046728971963</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C92" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D92">
         <v>-0.5904</v>
@@ -7145,16 +7421,19 @@
       <c r="S92">
         <v>10.6972</v>
       </c>
-    </row>
-    <row r="93" spans="1:19">
+      <c r="T92">
+        <v>-0.3397065362383281</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C93" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D93">
         <v>1.6968</v>
@@ -7204,16 +7483,19 @@
       <c r="S93">
         <v>9.181400000000002</v>
       </c>
-    </row>
-    <row r="94" spans="1:19">
+      <c r="T93">
+        <v>0.06365074556531697</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C94" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D94">
         <v>-1.3803</v>
@@ -7263,16 +7545,19 @@
       <c r="S94">
         <v>7.2829</v>
       </c>
-    </row>
-    <row r="95" spans="1:19">
+      <c r="T94">
+        <v>0.2224137931034483</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C95" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D95">
         <v>1.6043</v>
@@ -7322,16 +7607,19 @@
       <c r="S95">
         <v>11.4579</v>
       </c>
-    </row>
-    <row r="96" spans="1:19">
+      <c r="T95">
+        <v>0.04076543335538696</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C96" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D96">
         <v>-0.1979</v>
@@ -7381,16 +7669,19 @@
       <c r="S96">
         <v>6.5031</v>
       </c>
-    </row>
-    <row r="97" spans="1:19">
+      <c r="T96">
+        <v>0.4474092460440584</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C97" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D97">
         <v>2.4797</v>
@@ -7440,16 +7731,19 @@
       <c r="S97">
         <v>12.0105</v>
       </c>
-    </row>
-    <row r="98" spans="1:19">
+      <c r="T97">
+        <v>-0.3002735978112174</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C98" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D98">
         <v>1.7529</v>
@@ -7499,16 +7793,19 @@
       <c r="S98">
         <v>3.913</v>
       </c>
-    </row>
-    <row r="99" spans="1:19">
+      <c r="T98">
+        <v>-0.1688162797363142</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C99" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D99">
         <v>0.034</v>
@@ -7558,16 +7855,19 @@
       <c r="S99">
         <v>3.6474</v>
       </c>
-    </row>
-    <row r="100" spans="1:19">
+      <c r="T99">
+        <v>0.764536438829678</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C100" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D100">
         <v>-0.408</v>
@@ -7617,16 +7917,19 @@
       <c r="S100">
         <v>3.624499999999999</v>
       </c>
-    </row>
-    <row r="101" spans="1:19">
+      <c r="T100">
+        <v>-0.421209117938553</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C101" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D101">
         <v>0.9323</v>
@@ -7676,16 +7979,19 @@
       <c r="S101">
         <v>6.111699999999999</v>
       </c>
-    </row>
-    <row r="102" spans="1:19">
+      <c r="T101">
+        <v>-0.6696599081711431</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C102" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D102">
         <v>0.8042</v>
@@ -7735,16 +8041,19 @@
       <c r="S102">
         <v>8.543900000000001</v>
       </c>
-    </row>
-    <row r="103" spans="1:19">
+      <c r="T102">
+        <v>-0.4617919347246195</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C103" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D103">
         <v>0.2102</v>
@@ -7794,16 +8103,19 @@
       <c r="S103">
         <v>5.4677</v>
       </c>
-    </row>
-    <row r="104" spans="1:19">
+      <c r="T103">
+        <v>0.05026121419564041</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C104" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D104">
         <v>-1.4052</v>
@@ -7853,16 +8165,19 @@
       <c r="S104">
         <v>3.347200000000001</v>
       </c>
-    </row>
-    <row r="105" spans="1:19">
+      <c r="T104">
+        <v>0.04262997631667963</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C105" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D105">
         <v>-0.925</v>
@@ -7912,16 +8227,19 @@
       <c r="S105">
         <v>8.341400000000002</v>
       </c>
-    </row>
-    <row r="106" spans="1:19">
+      <c r="T105">
+        <v>-0.1840594393785883</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C106" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D106">
         <v>-0.1271</v>
@@ -7971,16 +8289,19 @@
       <c r="S106">
         <v>3.2358</v>
       </c>
-    </row>
-    <row r="107" spans="1:19">
+      <c r="T106">
+        <v>-0.3390394674274846</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C107" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D107">
         <v>1.2949</v>
@@ -8030,16 +8351,19 @@
       <c r="S107">
         <v>13.0995</v>
       </c>
-    </row>
-    <row r="108" spans="1:19">
+      <c r="T107">
+        <v>-0.4378598035895699</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C108" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D108">
         <v>0.1337</v>
@@ -8089,16 +8413,19 @@
       <c r="S108">
         <v>5.1166</v>
       </c>
-    </row>
-    <row r="109" spans="1:19">
+      <c r="T108">
+        <v>0.09354060573572774</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C109" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D109">
         <v>0.7912</v>
@@ -8148,16 +8475,19 @@
       <c r="S109">
         <v>6.698699999999999</v>
       </c>
-    </row>
-    <row r="110" spans="1:19">
+      <c r="T109">
+        <v>1.442600276625173</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C110" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D110">
         <v>-0.1315</v>
@@ -8207,16 +8537,19 @@
       <c r="S110">
         <v>11.8843</v>
       </c>
-    </row>
-    <row r="111" spans="1:19">
+      <c r="T110">
+        <v>-0.07463694697737239</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C111" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D111">
         <v>2.0288</v>
@@ -8266,16 +8599,19 @@
       <c r="S111">
         <v>5.728</v>
       </c>
-    </row>
-    <row r="112" spans="1:19">
+      <c r="T111">
+        <v>0.15119457981695</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C112" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D112">
         <v>0.3814</v>
@@ -8325,16 +8661,19 @@
       <c r="S112">
         <v>13.7599</v>
       </c>
-    </row>
-    <row r="113" spans="1:19">
+      <c r="T112">
+        <v>0.06101593026750822</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C113" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D113">
         <v>-1.6951</v>
@@ -8384,16 +8723,19 @@
       <c r="S113">
         <v>7.582000000000001</v>
       </c>
-    </row>
-    <row r="114" spans="1:19">
+      <c r="T113">
+        <v>0.05118110236220476</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C114" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D114">
         <v>0.7594</v>
@@ -8443,16 +8785,19 @@
       <c r="S114">
         <v>5.7267</v>
       </c>
-    </row>
-    <row r="115" spans="1:19">
+      <c r="T114">
+        <v>1.275010340956096</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C115" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D115">
         <v>1.6532</v>
@@ -8502,16 +8847,19 @@
       <c r="S115">
         <v>11.0044</v>
       </c>
-    </row>
-    <row r="116" spans="1:19">
+      <c r="T115">
+        <v>0.09821890473726988</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C116" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D116">
         <v>0.2287</v>
@@ -8561,16 +8909,19 @@
       <c r="S116">
         <v>9.7049</v>
       </c>
-    </row>
-    <row r="117" spans="1:19">
+      <c r="T116">
+        <v>-0.2334213943491693</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C117" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D117">
         <v>0.1566</v>
@@ -8620,16 +8971,19 @@
       <c r="S117">
         <v>7.3407</v>
       </c>
-    </row>
-    <row r="118" spans="1:19">
+      <c r="T117">
+        <v>-0.4830235059148871</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C118" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D118">
         <v>0.9664</v>
@@ -8679,16 +9033,19 @@
       <c r="S118">
         <v>3.0445</v>
       </c>
-    </row>
-    <row r="119" spans="1:19">
+      <c r="T118">
+        <v>0.188274297679288</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C119" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D119">
         <v>0.07099999999999999</v>
@@ -8738,16 +9095,19 @@
       <c r="S119">
         <v>5.4264</v>
       </c>
-    </row>
-    <row r="120" spans="1:19">
+      <c r="T119">
+        <v>0.6749206349206348</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C120" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D120">
         <v>0.8028999999999999</v>
@@ -8797,16 +9157,19 @@
       <c r="S120">
         <v>4.6004</v>
       </c>
-    </row>
-    <row r="121" spans="1:19">
+      <c r="T120">
+        <v>-0.04742225436512033</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C121" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D121">
         <v>0.034</v>
@@ -8856,16 +9219,19 @@
       <c r="S121">
         <v>3.5244</v>
       </c>
-    </row>
-    <row r="122" spans="1:19">
+      <c r="T121">
+        <v>-0.295814479638009</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C122" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D122">
         <v>0.034</v>
@@ -8915,16 +9281,19 @@
       <c r="S122">
         <v>5.873900000000001</v>
       </c>
-    </row>
-    <row r="123" spans="1:19">
+      <c r="T122">
+        <v>-0.3498185984342181</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C123" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D123">
         <v>1.8184</v>
@@ -8974,16 +9343,19 @@
       <c r="S123">
         <v>9.700199999999999</v>
       </c>
-    </row>
-    <row r="124" spans="1:19">
+      <c r="T123">
+        <v>-0.2651036970243463</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C124" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D124">
         <v>0.0052</v>
@@ -9033,16 +9405,19 @@
       <c r="S124">
         <v>5.244199999999999</v>
       </c>
-    </row>
-    <row r="125" spans="1:19">
+      <c r="T124">
+        <v>-0.02603856092228172</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C125" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D125">
         <v>-0.1191</v>
@@ -9092,16 +9467,19 @@
       <c r="S125">
         <v>11.8735</v>
       </c>
-    </row>
-    <row r="126" spans="1:19">
+      <c r="T125">
+        <v>-0.1549009649568309</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C126" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D126">
         <v>1.6874</v>
@@ -9151,16 +9529,19 @@
       <c r="S126">
         <v>2.8571</v>
       </c>
-    </row>
-    <row r="127" spans="1:19">
+      <c r="T126">
+        <v>-0.08196217130555133</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C127" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D127">
         <v>0.3461</v>
@@ -9210,16 +9591,19 @@
       <c r="S127">
         <v>2.821800000000001</v>
       </c>
-    </row>
-    <row r="128" spans="1:19">
+      <c r="T127">
+        <v>-0.3119203179969845</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C128" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D128">
         <v>-0.379</v>
@@ -9269,16 +9653,19 @@
       <c r="S128">
         <v>7.8991</v>
       </c>
-    </row>
-    <row r="129" spans="1:19">
+      <c r="T128">
+        <v>-0.04302557035676002</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C129" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D129">
         <v>-0.5463</v>
@@ -9328,16 +9715,19 @@
       <c r="S129">
         <v>8.4276</v>
       </c>
-    </row>
-    <row r="130" spans="1:19">
+      <c r="T129">
+        <v>0.1745619727449708</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C130" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D130">
         <v>-0.2483</v>
@@ -9387,16 +9777,19 @@
       <c r="S130">
         <v>5.1999</v>
       </c>
-    </row>
-    <row r="131" spans="1:19">
+      <c r="T130">
+        <v>0.7415294421932924</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C131" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D131">
         <v>0.6266</v>
@@ -9446,16 +9839,19 @@
       <c r="S131">
         <v>5.178900000000001</v>
       </c>
-    </row>
-    <row r="132" spans="1:19">
+      <c r="T131">
+        <v>-0.001756907842197751</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C132" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D132">
         <v>0.5826</v>
@@ -9505,16 +9901,19 @@
       <c r="S132">
         <v>8.6896</v>
       </c>
-    </row>
-    <row r="133" spans="1:19">
+      <c r="T132">
+        <v>-0.7113947338162584</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C133" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D133">
         <v>0.009299999999999999</v>
@@ -9564,16 +9963,19 @@
       <c r="S133">
         <v>6.565300000000001</v>
       </c>
-    </row>
-    <row r="134" spans="1:19">
+      <c r="T133">
+        <v>-0.5511921458625525</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C134" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D134">
         <v>-0.2175</v>
@@ -9623,16 +10025,19 @@
       <c r="S134">
         <v>3.3141</v>
       </c>
-    </row>
-    <row r="135" spans="1:19">
+      <c r="T134">
+        <v>-0.5443851944792975</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C135" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D135">
         <v>0.3084</v>
@@ -9682,16 +10087,19 @@
       <c r="S135">
         <v>11.4903</v>
       </c>
-    </row>
-    <row r="136" spans="1:19">
+      <c r="T135">
+        <v>-0.3926081558590392</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C136" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D136">
         <v>0.3228</v>
@@ -9741,16 +10149,19 @@
       <c r="S136">
         <v>4.8552</v>
       </c>
-    </row>
-    <row r="137" spans="1:19">
+      <c r="T136">
+        <v>-0.1431580531106597</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C137" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D137">
         <v>-0.187</v>
@@ -9800,16 +10211,19 @@
       <c r="S137">
         <v>4.0637</v>
       </c>
-    </row>
-    <row r="138" spans="1:19">
+      <c r="T137">
+        <v>0.1716456570540493</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C138" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D138">
         <v>0.1188</v>
@@ -9859,16 +10273,19 @@
       <c r="S138">
         <v>5.053700000000001</v>
       </c>
-    </row>
-    <row r="139" spans="1:19">
+      <c r="T138">
+        <v>-0.4932949329493295</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C139" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D139">
         <v>0.596</v>
@@ -9918,16 +10335,19 @@
       <c r="S139">
         <v>5.0938</v>
       </c>
-    </row>
-    <row r="140" spans="1:19">
+      <c r="T139">
+        <v>1.345241926831885</v>
+      </c>
+    </row>
+    <row r="140" spans="1:20">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C140" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D140">
         <v>-0.0883</v>
@@ -9977,16 +10397,19 @@
       <c r="S140">
         <v>3.3434</v>
       </c>
-    </row>
-    <row r="141" spans="1:19">
+      <c r="T140">
+        <v>-0.4864606942621973</v>
+      </c>
+    </row>
+    <row r="141" spans="1:20">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C141" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D141">
         <v>0.034</v>
@@ -10036,16 +10459,19 @@
       <c r="S141">
         <v>8.772600000000001</v>
       </c>
-    </row>
-    <row r="142" spans="1:19">
+      <c r="T141">
+        <v>-0.6456211812627292</v>
+      </c>
+    </row>
+    <row r="142" spans="1:20">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C142" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D142">
         <v>0.3369</v>
@@ -10095,16 +10521,19 @@
       <c r="S142">
         <v>7.927699999999999</v>
       </c>
-    </row>
-    <row r="143" spans="1:19">
+      <c r="T142">
+        <v>-0.2359010162128617</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C143" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D143">
         <v>0.992</v>
@@ -10154,16 +10583,19 @@
       <c r="S143">
         <v>3.5039</v>
       </c>
-    </row>
-    <row r="144" spans="1:19">
+      <c r="T143">
+        <v>0.1652982490849737</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C144" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D144">
         <v>1.7334</v>
@@ -10213,16 +10645,19 @@
       <c r="S144">
         <v>2.7924</v>
       </c>
-    </row>
-    <row r="145" spans="1:19">
+      <c r="T144">
+        <v>0.3117283950617283</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C145" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D145">
         <v>-0.2615</v>
@@ -10272,16 +10707,19 @@
       <c r="S145">
         <v>3.7933</v>
       </c>
-    </row>
-    <row r="146" spans="1:19">
+      <c r="T145">
+        <v>0.06877217072891624</v>
+      </c>
+    </row>
+    <row r="146" spans="1:20">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C146" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D146">
         <v>0.6649</v>
@@ -10331,16 +10769,19 @@
       <c r="S146">
         <v>3.5181</v>
       </c>
-    </row>
-    <row r="147" spans="1:19">
+      <c r="T146">
+        <v>-0.6037284500536171</v>
+      </c>
+    </row>
+    <row r="147" spans="1:20">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C147" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D147">
         <v>0.4202</v>
@@ -10390,16 +10831,19 @@
       <c r="S147">
         <v>4.0129</v>
       </c>
-    </row>
-    <row r="148" spans="1:19">
+      <c r="T147">
+        <v>-0.4802250398858007</v>
+      </c>
+    </row>
+    <row r="148" spans="1:20">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C148" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D148">
         <v>0.06619999999999999</v>
@@ -10449,16 +10893,19 @@
       <c r="S148">
         <v>5.8224</v>
       </c>
-    </row>
-    <row r="149" spans="1:19">
+      <c r="T148">
+        <v>0.4093689338167965</v>
+      </c>
+    </row>
+    <row r="149" spans="1:20">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C149" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D149">
         <v>0.6168</v>
@@ -10508,16 +10955,19 @@
       <c r="S149">
         <v>4.3847</v>
       </c>
-    </row>
-    <row r="150" spans="1:19">
+      <c r="T149">
+        <v>-0.323406789755807</v>
+      </c>
+    </row>
+    <row r="150" spans="1:20">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C150" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D150">
         <v>-0.0473</v>
@@ -10567,16 +11017,19 @@
       <c r="S150">
         <v>3.5963</v>
       </c>
-    </row>
-    <row r="151" spans="1:19">
+      <c r="T150">
+        <v>-0.03098537336412617</v>
+      </c>
+    </row>
+    <row r="151" spans="1:20">
       <c r="A151" s="1">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C151" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D151">
         <v>-0.1337</v>
@@ -10626,16 +11079,19 @@
       <c r="S151">
         <v>3.893000000000001</v>
       </c>
-    </row>
-    <row r="152" spans="1:19">
+      <c r="T151">
+        <v>0.4384195904928492</v>
+      </c>
+    </row>
+    <row r="152" spans="1:20">
       <c r="A152" s="1">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C152" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D152">
         <v>0.5876</v>
@@ -10685,16 +11141,19 @@
       <c r="S152">
         <v>3.5334</v>
       </c>
-    </row>
-    <row r="153" spans="1:19">
+      <c r="T152">
+        <v>-0.4173859432799014</v>
+      </c>
+    </row>
+    <row r="153" spans="1:20">
       <c r="A153" s="1">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C153" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D153">
         <v>0.195</v>
@@ -10744,16 +11203,19 @@
       <c r="S153">
         <v>4.397500000000001</v>
       </c>
-    </row>
-    <row r="154" spans="1:19">
+      <c r="T153">
+        <v>-0.002213368747233321</v>
+      </c>
+    </row>
+    <row r="154" spans="1:20">
       <c r="A154" s="1">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C154" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D154">
         <v>0.2593</v>
@@ -10803,16 +11265,19 @@
       <c r="S154">
         <v>4.563099999999999</v>
       </c>
-    </row>
-    <row r="155" spans="1:19">
+      <c r="T154">
+        <v>-0.4540292640314479</v>
+      </c>
+    </row>
+    <row r="155" spans="1:20">
       <c r="A155" s="1">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C155" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D155">
         <v>0.3666</v>
@@ -10862,16 +11327,19 @@
       <c r="S155">
         <v>3.6599</v>
       </c>
-    </row>
-    <row r="156" spans="1:19">
+      <c r="T155">
+        <v>0.8102162123759681</v>
+      </c>
+    </row>
+    <row r="156" spans="1:20">
       <c r="A156" s="1">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C156" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D156">
         <v>0.0396</v>
@@ -10921,16 +11389,19 @@
       <c r="S156">
         <v>4.3705</v>
       </c>
-    </row>
-    <row r="157" spans="1:19">
+      <c r="T156">
+        <v>0.03738966577407524</v>
+      </c>
+    </row>
+    <row r="157" spans="1:20">
       <c r="A157" s="1">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C157" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D157">
         <v>0.6421</v>
@@ -10980,16 +11451,19 @@
       <c r="S157">
         <v>2.8518</v>
       </c>
-    </row>
-    <row r="158" spans="1:19">
+      <c r="T157">
+        <v>0.6878817971171497</v>
+      </c>
+    </row>
+    <row r="158" spans="1:20">
       <c r="A158" s="1">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C158" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D158">
         <v>0.3301</v>
@@ -11039,16 +11513,19 @@
       <c r="S158">
         <v>4.4767</v>
       </c>
-    </row>
-    <row r="159" spans="1:19">
+      <c r="T158">
+        <v>0.7244929475960055</v>
+      </c>
+    </row>
+    <row r="159" spans="1:20">
       <c r="A159" s="1">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C159" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D159">
         <v>0.0376</v>
@@ -11098,16 +11575,19 @@
       <c r="S159">
         <v>4.0015</v>
       </c>
-    </row>
-    <row r="160" spans="1:19">
+      <c r="T159">
+        <v>0.4969584765934938</v>
+      </c>
+    </row>
+    <row r="160" spans="1:20">
       <c r="A160" s="1">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C160" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D160">
         <v>-0.2424</v>
@@ -11157,16 +11637,19 @@
       <c r="S160">
         <v>4.4023</v>
       </c>
-    </row>
-    <row r="161" spans="1:19">
+      <c r="T160">
+        <v>-0.2448891890232673</v>
+      </c>
+    </row>
+    <row r="161" spans="1:20">
       <c r="A161" s="1">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C161" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D161">
         <v>1.5081</v>
@@ -11216,16 +11699,19 @@
       <c r="S161">
         <v>3.8874</v>
       </c>
-    </row>
-    <row r="162" spans="1:19">
+      <c r="T161">
+        <v>0.2660678333591452</v>
+      </c>
+    </row>
+    <row r="162" spans="1:20">
       <c r="A162" s="1">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C162" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D162">
         <v>0.7554</v>
@@ -11275,16 +11761,19 @@
       <c r="S162">
         <v>6.586900000000001</v>
       </c>
-    </row>
-    <row r="163" spans="1:19">
+      <c r="T162">
+        <v>0.002130968150665152</v>
+      </c>
+    </row>
+    <row r="163" spans="1:20">
       <c r="A163" s="1">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C163" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D163">
         <v>-0.6276</v>
@@ -11334,16 +11823,19 @@
       <c r="S163">
         <v>5.3521</v>
       </c>
-    </row>
-    <row r="164" spans="1:19">
+      <c r="T163">
+        <v>-0.5989897745472466</v>
+      </c>
+    </row>
+    <row r="164" spans="1:20">
       <c r="A164" s="1">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C164" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D164">
         <v>0.0289</v>
@@ -11393,16 +11885,19 @@
       <c r="S164">
         <v>3.9248</v>
       </c>
-    </row>
-    <row r="165" spans="1:19">
+      <c r="T164">
+        <v>-0.5877822220753033</v>
+      </c>
+    </row>
+    <row r="165" spans="1:20">
       <c r="A165" s="1">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C165" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D165">
         <v>-0.3586</v>
@@ -11452,16 +11947,19 @@
       <c r="S165">
         <v>7.5253</v>
       </c>
-    </row>
-    <row r="166" spans="1:19">
+      <c r="T165">
+        <v>-0.2096180395766222</v>
+      </c>
+    </row>
+    <row r="166" spans="1:20">
       <c r="A166" s="1">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C166" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D166">
         <v>0.034</v>
@@ -11511,16 +12009,19 @@
       <c r="S166">
         <v>14.6577</v>
       </c>
-    </row>
-    <row r="167" spans="1:19">
+      <c r="T166">
+        <v>-0.6630095854024715</v>
+      </c>
+    </row>
+    <row r="167" spans="1:20">
       <c r="A167" s="1">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C167" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D167">
         <v>0.1903</v>
@@ -11570,16 +12071,19 @@
       <c r="S167">
         <v>4.3081</v>
       </c>
-    </row>
-    <row r="168" spans="1:19">
+      <c r="T167">
+        <v>-0.2989108511496572</v>
+      </c>
+    </row>
+    <row r="168" spans="1:20">
       <c r="A168" s="1">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C168" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D168">
         <v>1.1434</v>
@@ -11629,16 +12133,19 @@
       <c r="S168">
         <v>4.580400000000001</v>
       </c>
-    </row>
-    <row r="169" spans="1:19">
+      <c r="T168">
+        <v>0.07212925562608194</v>
+      </c>
+    </row>
+    <row r="169" spans="1:20">
       <c r="A169" s="1">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C169" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D169">
         <v>0.2477</v>
@@ -11688,16 +12195,19 @@
       <c r="S169">
         <v>2.8904</v>
       </c>
-    </row>
-    <row r="170" spans="1:19">
+      <c r="T169">
+        <v>0.04522995058912964</v>
+      </c>
+    </row>
+    <row r="170" spans="1:20">
       <c r="A170" s="1">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C170" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D170">
         <v>0.034</v>
@@ -11747,16 +12257,19 @@
       <c r="S170">
         <v>13.5333</v>
       </c>
-    </row>
-    <row r="171" spans="1:19">
+      <c r="T170">
+        <v>-0.06957250628667214</v>
+      </c>
+    </row>
+    <row r="171" spans="1:20">
       <c r="A171" s="1">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C171" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D171">
         <v>0.9307</v>
@@ -11806,16 +12319,19 @@
       <c r="S171">
         <v>8.4549</v>
       </c>
-    </row>
-    <row r="172" spans="1:19">
+      <c r="T171">
+        <v>-0.5436893203883496</v>
+      </c>
+    </row>
+    <row r="172" spans="1:20">
       <c r="A172" s="1">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C172" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D172">
         <v>-0.3333</v>
@@ -11865,16 +12381,19 @@
       <c r="S172">
         <v>3.1964</v>
       </c>
-    </row>
-    <row r="173" spans="1:19">
+      <c r="T172">
+        <v>0.06993865030674849</v>
+      </c>
+    </row>
+    <row r="173" spans="1:20">
       <c r="A173" s="1">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C173" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D173">
         <v>1.2321</v>
@@ -11924,16 +12443,19 @@
       <c r="S173">
         <v>3.727999999999999</v>
       </c>
-    </row>
-    <row r="174" spans="1:19">
+      <c r="T173">
+        <v>0.0001682368775236094</v>
+      </c>
+    </row>
+    <row r="174" spans="1:20">
       <c r="A174" s="1">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C174" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D174">
         <v>0.3594</v>
@@ -11983,16 +12505,19 @@
       <c r="S174">
         <v>6.3637</v>
       </c>
-    </row>
-    <row r="175" spans="1:19">
+      <c r="T174">
+        <v>0.5662220104811814</v>
+      </c>
+    </row>
+    <row r="175" spans="1:20">
       <c r="A175" s="1">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C175" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D175">
         <v>-0.2131</v>
@@ -12042,16 +12567,19 @@
       <c r="S175">
         <v>16.3034</v>
       </c>
-    </row>
-    <row r="176" spans="1:19">
+      <c r="T175">
+        <v>-0.4539951573849879</v>
+      </c>
+    </row>
+    <row r="176" spans="1:20">
       <c r="A176" s="1">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C176" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D176">
         <v>1.1151</v>
@@ -12101,16 +12629,19 @@
       <c r="S176">
         <v>4.8633</v>
       </c>
-    </row>
-    <row r="177" spans="1:19">
+      <c r="T176">
+        <v>0.6744890234670704</v>
+      </c>
+    </row>
+    <row r="177" spans="1:20">
       <c r="A177" s="1">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C177" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D177">
         <v>-0.2887</v>
@@ -12160,16 +12691,19 @@
       <c r="S177">
         <v>4.298500000000001</v>
       </c>
-    </row>
-    <row r="178" spans="1:19">
+      <c r="T177">
+        <v>-0.204453886162186</v>
+      </c>
+    </row>
+    <row r="178" spans="1:20">
       <c r="A178" s="1">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C178" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D178">
         <v>-0.0488</v>
@@ -12219,16 +12753,19 @@
       <c r="S178">
         <v>4.8348</v>
       </c>
-    </row>
-    <row r="179" spans="1:19">
+      <c r="T178">
+        <v>-0.4438415626695605</v>
+      </c>
+    </row>
+    <row r="179" spans="1:20">
       <c r="A179" s="1">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C179" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D179">
         <v>-0.1144</v>
@@ -12278,16 +12815,19 @@
       <c r="S179">
         <v>3.4385</v>
       </c>
-    </row>
-    <row r="180" spans="1:19">
+      <c r="T179">
+        <v>0.1028571428571428</v>
+      </c>
+    </row>
+    <row r="180" spans="1:20">
       <c r="A180" s="1">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C180" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D180">
         <v>0.034</v>
@@ -12337,16 +12877,19 @@
       <c r="S180">
         <v>3.3169</v>
       </c>
-    </row>
-    <row r="181" spans="1:19">
+      <c r="T180">
+        <v>-0.04410610579186949</v>
+      </c>
+    </row>
+    <row r="181" spans="1:20">
       <c r="A181" s="1">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C181" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D181">
         <v>-0.3733</v>
@@ -12396,16 +12939,19 @@
       <c r="S181">
         <v>3.985200000000001</v>
       </c>
-    </row>
-    <row r="182" spans="1:19">
+      <c r="T181">
+        <v>1.073379884846257</v>
+      </c>
+    </row>
+    <row r="182" spans="1:20">
       <c r="A182" s="1">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C182" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D182">
         <v>0.1008</v>
@@ -12455,16 +13001,19 @@
       <c r="S182">
         <v>3.0013</v>
       </c>
-    </row>
-    <row r="183" spans="1:19">
+      <c r="T182">
+        <v>-0.4522733315607551</v>
+      </c>
+    </row>
+    <row r="183" spans="1:20">
       <c r="A183" s="1">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C183" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D183">
         <v>0.3415</v>
@@ -12514,16 +13063,19 @@
       <c r="S183">
         <v>5.9147</v>
       </c>
-    </row>
-    <row r="184" spans="1:19">
+      <c r="T183">
+        <v>-0.3403996759384283</v>
+      </c>
+    </row>
+    <row r="184" spans="1:20">
       <c r="A184" s="1">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C184" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D184">
         <v>-0.4851</v>
@@ -12573,16 +13125,19 @@
       <c r="S184">
         <v>3.4007</v>
       </c>
-    </row>
-    <row r="185" spans="1:19">
+      <c r="T184">
+        <v>-0.03575733226195258</v>
+      </c>
+    </row>
+    <row r="185" spans="1:20">
       <c r="A185" s="1">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C185" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D185">
         <v>2.2039</v>
@@ -12632,16 +13187,19 @@
       <c r="S185">
         <v>9.0701</v>
       </c>
-    </row>
-    <row r="186" spans="1:19">
+      <c r="T185">
+        <v>0.4428223844282236</v>
+      </c>
+    </row>
+    <row r="186" spans="1:20">
       <c r="A186" s="1">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C186" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D186">
         <v>0.7375</v>
@@ -12691,16 +13249,19 @@
       <c r="S186">
         <v>5.084</v>
       </c>
-    </row>
-    <row r="187" spans="1:19">
+      <c r="T186">
+        <v>-0.0782073029193823</v>
+      </c>
+    </row>
+    <row r="187" spans="1:20">
       <c r="A187" s="1">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C187" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D187">
         <v>0.0211</v>
@@ -12750,16 +13311,19 @@
       <c r="S187">
         <v>2.9459</v>
       </c>
-    </row>
-    <row r="188" spans="1:19">
+      <c r="T187">
+        <v>1.085564679281209</v>
+      </c>
+    </row>
+    <row r="188" spans="1:20">
       <c r="A188" s="1">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C188" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D188">
         <v>0.255</v>
@@ -12809,16 +13373,19 @@
       <c r="S188">
         <v>3.9512</v>
       </c>
-    </row>
-    <row r="189" spans="1:19">
+      <c r="T188">
+        <v>0.2345427367848894</v>
+      </c>
+    </row>
+    <row r="189" spans="1:20">
       <c r="A189" s="1">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C189" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D189">
         <v>0.5014999999999999</v>
@@ -12868,16 +13435,19 @@
       <c r="S189">
         <v>3.8745</v>
       </c>
-    </row>
-    <row r="190" spans="1:19">
+      <c r="T189">
+        <v>-0.3402603905858789</v>
+      </c>
+    </row>
+    <row r="190" spans="1:20">
       <c r="A190" s="1">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C190" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D190">
         <v>0.3182</v>
@@ -12927,16 +13497,19 @@
       <c r="S190">
         <v>3.2996</v>
       </c>
-    </row>
-    <row r="191" spans="1:19">
+      <c r="T190">
+        <v>-0.3675034410434554</v>
+      </c>
+    </row>
+    <row r="191" spans="1:20">
       <c r="A191" s="1">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C191" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D191">
         <v>0.3532</v>
@@ -12986,16 +13559,19 @@
       <c r="S191">
         <v>3.8531</v>
       </c>
-    </row>
-    <row r="192" spans="1:19">
+      <c r="T191">
+        <v>-0.1791666666666667</v>
+      </c>
+    </row>
+    <row r="192" spans="1:20">
       <c r="A192" s="1">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C192" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D192">
         <v>0.3314</v>
@@ -13045,16 +13621,19 @@
       <c r="S192">
         <v>4.0857</v>
       </c>
-    </row>
-    <row r="193" spans="1:19">
+      <c r="T192">
+        <v>-0.5126453158900295</v>
+      </c>
+    </row>
+    <row r="193" spans="1:20">
       <c r="A193" s="1">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C193" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D193">
         <v>-0.2667</v>
@@ -13104,16 +13683,19 @@
       <c r="S193">
         <v>4.0878</v>
       </c>
-    </row>
-    <row r="194" spans="1:19">
+      <c r="T193">
+        <v>0.7183679706601467</v>
+      </c>
+    </row>
+    <row r="194" spans="1:20">
       <c r="A194" s="1">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C194" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D194">
         <v>-0.5827</v>
@@ -13163,16 +13745,19 @@
       <c r="S194">
         <v>4.338799999999999</v>
       </c>
-    </row>
-    <row r="195" spans="1:19">
+      <c r="T194">
+        <v>-0.5252913539569223</v>
+      </c>
+    </row>
+    <row r="195" spans="1:20">
       <c r="A195" s="1">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C195" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D195">
         <v>1.606</v>
@@ -13222,16 +13807,19 @@
       <c r="S195">
         <v>9.9139</v>
       </c>
-    </row>
-    <row r="196" spans="1:19">
+      <c r="T195">
+        <v>-0.2881568846395423</v>
+      </c>
+    </row>
+    <row r="196" spans="1:20">
       <c r="A196" s="1">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C196" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D196">
         <v>0.4676</v>
@@ -13281,16 +13869,19 @@
       <c r="S196">
         <v>5.4725</v>
       </c>
-    </row>
-    <row r="197" spans="1:19">
+      <c r="T196">
+        <v>0.1249444197421077</v>
+      </c>
+    </row>
+    <row r="197" spans="1:20">
       <c r="A197" s="1">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C197" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D197">
         <v>0.9146</v>
@@ -13340,16 +13931,19 @@
       <c r="S197">
         <v>3.539</v>
       </c>
-    </row>
-    <row r="198" spans="1:19">
+      <c r="T197">
+        <v>0.2563855778485229</v>
+      </c>
+    </row>
+    <row r="198" spans="1:20">
       <c r="A198" s="1">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C198" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D198">
         <v>0.3092</v>
@@ -13399,16 +13993,19 @@
       <c r="S198">
         <v>3.4002</v>
       </c>
-    </row>
-    <row r="199" spans="1:19">
+      <c r="T198">
+        <v>-0.3131548311990687</v>
+      </c>
+    </row>
+    <row r="199" spans="1:20">
       <c r="A199" s="1">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C199" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D199">
         <v>-0.271</v>
@@ -13458,16 +14055,19 @@
       <c r="S199">
         <v>2.8471</v>
       </c>
-    </row>
-    <row r="200" spans="1:19">
+      <c r="T199">
+        <v>0.628494442573257</v>
+      </c>
+    </row>
+    <row r="200" spans="1:20">
       <c r="A200" s="1">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C200" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D200">
         <v>-0.1236</v>
@@ -13517,16 +14117,19 @@
       <c r="S200">
         <v>11.7245</v>
       </c>
-    </row>
-    <row r="201" spans="1:19">
+      <c r="T200">
+        <v>-0.1358145929490326</v>
+      </c>
+    </row>
+    <row r="201" spans="1:20">
       <c r="A201" s="1">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C201" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D201">
         <v>-0.3381</v>
@@ -13576,16 +14179,19 @@
       <c r="S201">
         <v>3.6699</v>
       </c>
-    </row>
-    <row r="202" spans="1:19">
+      <c r="T201">
+        <v>0.245381004693898</v>
+      </c>
+    </row>
+    <row r="202" spans="1:20">
       <c r="A202" s="1">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C202" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D202">
         <v>0.4221</v>
@@ -13635,16 +14241,19 @@
       <c r="S202">
         <v>3.3394</v>
       </c>
-    </row>
-    <row r="203" spans="1:19">
+      <c r="T202">
+        <v>-0.44790202770528</v>
+      </c>
+    </row>
+    <row r="203" spans="1:20">
       <c r="A203" s="1">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C203" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D203">
         <v>1.0366</v>
@@ -13694,16 +14303,19 @@
       <c r="S203">
         <v>9.7988</v>
       </c>
-    </row>
-    <row r="204" spans="1:19">
+      <c r="T203">
+        <v>-0.318652362130623</v>
+      </c>
+    </row>
+    <row r="204" spans="1:20">
       <c r="A204" s="1">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C204" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D204">
         <v>0.9288</v>
@@ -13753,16 +14365,19 @@
       <c r="S204">
         <v>6.1207</v>
       </c>
-    </row>
-    <row r="205" spans="1:19">
+      <c r="T204">
+        <v>-0.222436206066442</v>
+      </c>
+    </row>
+    <row r="205" spans="1:20">
       <c r="A205" s="1">
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C205" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D205">
         <v>1.4021</v>
@@ -13812,16 +14427,19 @@
       <c r="S205">
         <v>10.1281</v>
       </c>
-    </row>
-    <row r="206" spans="1:19">
+      <c r="T205">
+        <v>1.134387351778656</v>
+      </c>
+    </row>
+    <row r="206" spans="1:20">
       <c r="A206" s="1">
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C206" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D206">
         <v>0.6022999999999999</v>
@@ -13871,16 +14489,19 @@
       <c r="S206">
         <v>3.2695</v>
       </c>
-    </row>
-    <row r="207" spans="1:19">
+      <c r="T206">
+        <v>-0.6091529277998863</v>
+      </c>
+    </row>
+    <row r="207" spans="1:20">
       <c r="A207" s="1">
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C207" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D207">
         <v>0.3612</v>
@@ -13930,16 +14551,19 @@
       <c r="S207">
         <v>3.608099999999999</v>
       </c>
-    </row>
-    <row r="208" spans="1:19">
+      <c r="T207">
+        <v>-0.3096008629989212</v>
+      </c>
+    </row>
+    <row r="208" spans="1:20">
       <c r="A208" s="1">
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C208" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D208">
         <v>-0.7793</v>
@@ -13989,16 +14613,19 @@
       <c r="S208">
         <v>4.2396</v>
       </c>
-    </row>
-    <row r="209" spans="1:19">
+      <c r="T208">
+        <v>0.2883330477985266</v>
+      </c>
+    </row>
+    <row r="209" spans="1:20">
       <c r="A209" s="1">
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C209" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D209">
         <v>0.2126</v>
@@ -14048,16 +14675,19 @@
       <c r="S209">
         <v>6.7776</v>
       </c>
-    </row>
-    <row r="210" spans="1:19">
+      <c r="T209">
+        <v>-0.4343828364446921</v>
+      </c>
+    </row>
+    <row r="210" spans="1:20">
       <c r="A210" s="1">
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C210" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D210">
         <v>1.1657</v>
@@ -14107,16 +14737,19 @@
       <c r="S210">
         <v>11.4852</v>
       </c>
-    </row>
-    <row r="211" spans="1:19">
+      <c r="T210">
+        <v>-0.4955680902497986</v>
+      </c>
+    </row>
+    <row r="211" spans="1:20">
       <c r="A211" s="1">
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C211" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D211">
         <v>0.3875</v>
@@ -14166,16 +14799,19 @@
       <c r="S211">
         <v>3.4708</v>
       </c>
-    </row>
-    <row r="212" spans="1:19">
+      <c r="T211">
+        <v>0.4565497830421017</v>
+      </c>
+    </row>
+    <row r="212" spans="1:20">
       <c r="A212" s="1">
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C212" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D212">
         <v>0.8687</v>
@@ -14225,16 +14861,19 @@
       <c r="S212">
         <v>8.4704</v>
       </c>
-    </row>
-    <row r="213" spans="1:19">
+      <c r="T212">
+        <v>-0.3573648971783836</v>
+      </c>
+    </row>
+    <row r="213" spans="1:20">
       <c r="A213" s="1">
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C213" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D213">
         <v>0.034</v>
@@ -14284,16 +14923,19 @@
       <c r="S213">
         <v>13.6375</v>
       </c>
-    </row>
-    <row r="214" spans="1:19">
+      <c r="T213">
+        <v>-0.5492253263389044</v>
+      </c>
+    </row>
+    <row r="214" spans="1:20">
       <c r="A214" s="1">
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C214" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D214">
         <v>0.229</v>
@@ -14343,16 +14985,19 @@
       <c r="S214">
         <v>2.9909</v>
       </c>
-    </row>
-    <row r="215" spans="1:19">
+      <c r="T214">
+        <v>-0.04416919841084367</v>
+      </c>
+    </row>
+    <row r="215" spans="1:20">
       <c r="A215" s="1">
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C215" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D215">
         <v>0.1146</v>
@@ -14402,16 +15047,19 @@
       <c r="S215">
         <v>3.5801</v>
       </c>
-    </row>
-    <row r="216" spans="1:19">
+      <c r="T215">
+        <v>-0.5615748741453152</v>
+      </c>
+    </row>
+    <row r="216" spans="1:20">
       <c r="A216" s="1">
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C216" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D216">
         <v>0.1353</v>
@@ -14460,6 +15108,9 @@
       </c>
       <c r="S216">
         <v>5.477099999999999</v>
+      </c>
+      <c r="T216">
+        <v>0.3037423846823325</v>
       </c>
     </row>
   </sheetData>
